--- a/SeleniumWendriver/Resources/ExcelData.xlsx
+++ b/SeleniumWendriver/Resources/ExcelData.xlsx
@@ -1,75 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0B1102-4727-4261-8F4B-805221750CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestExcelData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Severity</t>
   </si>
   <si>
+    <t>HardWare</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>blocker</t>
   </si>
   <si>
-    <t>HardWare</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Desc</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Linux</t>
   </si>
   <si>
     <t>major</t>
   </si>
   <si>
+    <t>Macintosh</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Macintosh</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>Summary One - Excel</t>
-  </si>
-  <si>
-    <t>Summary Two - Excel</t>
-  </si>
-  <si>
-    <t>Summary Three- Excel</t>
+    <t>Summay One - Excel</t>
+  </si>
+  <si>
+    <t>Summay Two - Excel</t>
+  </si>
+  <si>
+    <t>Summay Three - Excel</t>
   </si>
   <si>
     <t>Description One - Excel</t>
@@ -79,13 +74,19 @@
   </si>
   <si>
     <t>Description Three - Excel</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,20 +95,312 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -116,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -125,17 +418,109 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -143,29 +528,113 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -226,9 +695,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -261,9 +730,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -442,48 +911,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -494,13 +962,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -511,13 +979,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -525,12 +993,51 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42005</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>42005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>